--- a/GameModules/Localization_ItemKey.xlsx
+++ b/GameModules/Localization_ItemKey.xlsx
@@ -28636,7 +28636,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>ඞКроличья лапка</t>
+          <t>Кроличья лапка</t>
         </is>
       </c>
     </row>
@@ -28678,7 +28678,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>ඞНекоторые суеверные люди подумали бы, что это амулет, который может принести удачу.</t>
+          <t>Некоторые суеверные люди думают что это амулет, способный принести удачу.</t>
         </is>
       </c>
     </row>
@@ -28763,7 +28763,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>ඞКрепящееся к пальцам дробящее оружие с выпуклостью или шипами направленными наружу. Намного мощнее обычного кулака.</t>
+          <t>Крепящееся к пальцам дробящее оружие с выпуклостью или шипами направленными наружу. Намного мощнее обычного кулака.</t>
         </is>
       </c>
     </row>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>ඞОбычно используется для игры в бейсбол, но его сподручность позволяет бить не только мячи.</t>
+          <t>Обычно используется для игры в бейсбол, но его сподручность позволяет бить не только мячи.</t>
         </is>
       </c>
     </row>
@@ -28848,7 +28848,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>ඞБейсбольная бита</t>
+          <t>Бейсбольная бита</t>
         </is>
       </c>
     </row>
@@ -28890,7 +28890,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>ඞКастет</t>
+          <t>Кастет</t>
         </is>
       </c>
     </row>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>ඞМачете</t>
+          <t>Мачете</t>
         </is>
       </c>
     </row>
@@ -28975,7 +28975,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>ඞДлинное лезвие обычно используеещеся для колки древесины, а иногда и для копания.</t>
+          <t>Длинное лезвие обычно используеещеся для колки древесины, а иногда и для копания.</t>
         </is>
       </c>
     </row>
@@ -29017,7 +29017,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>ඞСтарая рукопись</t>
+          <t>Старая рукопись</t>
         </is>
       </c>
     </row>
@@ -29107,7 +29107,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>ඞБУДЕТ+30</t>
+          <t>ВОЛ+30</t>
         </is>
       </c>
     </row>
@@ -29149,7 +29149,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>ඞМедицинский+20</t>
+          <t>Медицина+20</t>
         </is>
       </c>
     </row>
@@ -29191,7 +29191,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>ඞС+30</t>
+          <t>ТЕЛ+30</t>
         </is>
       </c>
     </row>
@@ -29233,7 +29233,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>ඞSTR+30</t>
+          <t>СИЛ+30</t>
         </is>
       </c>
     </row>
@@ -29275,7 +29275,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>ඞСкрытность+10</t>
+          <t>Скрытность+10</t>
         </is>
       </c>
     </row>
@@ -29317,7 +29317,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>ඞЭкипировка: HP+3 за ход в бою</t>
+          <t>Экипировка: HP+3 каждый ход в бою</t>
         </is>
       </c>
     </row>
@@ -29359,7 +29359,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>ඞБроня+3</t>
+          <t>Броня+3</t>
         </is>
       </c>
     </row>
@@ -29401,7 +29401,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>ඞСпорт+50</t>
+          <t>Спорт+50</t>
         </is>
       </c>
     </row>
@@ -29443,7 +29443,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>ඞНаблюдение+20</t>
+          <t>Наблюдательность+20</t>
         </is>
       </c>
     </row>
@@ -29485,7 +29485,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>ඞДипломатия+10</t>
+          <t>Дипломатия+10</t>
         </is>
       </c>
     </row>
@@ -29527,7 +29527,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>ඞЭрудиция+20</t>
+          <t>Эрудиция+20</t>
         </is>
       </c>
     </row>
@@ -29611,7 +29611,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>ඞЧтение</t>
+          <t>Чтение</t>
         </is>
       </c>
     </row>
@@ -29695,7 +29695,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>ඞВырезка из газеты, объявление о пропаже пианиста Паскаля Таунсенда.</t>
+          <t>Вырезка из газеты, на ней объявление о пропаже пианиста Паскаля из Таунсенда.</t>
         </is>
       </c>
     </row>
@@ -29737,7 +29737,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>ඞВырезка из новостей</t>
+          <t>Вырезка из новостей</t>
         </is>
       </c>
     </row>
@@ -29779,7 +29779,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>ඞКлюч от кладовой</t>
+          <t>Ключ от кладовой</t>
         </is>
       </c>
     </row>
@@ -29821,7 +29821,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>ඞКлюч от камеры хранения на втором этаже отеля.</t>
+          <t>Ключ от камеры хранения на втором этаже отеля.</t>
         </is>
       </c>
     </row>
@@ -29863,7 +29863,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>ඞКлюч Райана</t>
+          <t>Ключ Райана</t>
         </is>
       </c>
     </row>
@@ -30283,7 +30283,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>ඞЭлектромагнитная граната</t>
+          <t>Электромагнитная граната</t>
         </is>
       </c>
     </row>
@@ -31048,7 +31048,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>ඞВиноградная гирлянда</t>
+          <t>Виноградная гирлянда</t>
         </is>
       </c>
     </row>
@@ -31090,7 +31090,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>ඞБраслет из виноградных лоз с нераспустившимся цветком на нем.</t>
+          <t>Браслет из виноградных лоз с нераспустившимся цветком на нем.</t>
         </is>
       </c>
     </row>
@@ -31132,7 +31132,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>ඞВосстановить руну</t>
+          <t>Восстановить руну</t>
         </is>
       </c>
     </row>
@@ -31174,7 +31174,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>ඞСпирт</t>
+          <t>Спирт</t>
         </is>
       </c>
     </row>
@@ -31216,7 +31216,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>ඞРуна защиты</t>
+          <t>Руна защиты</t>
         </is>
       </c>
     </row>
@@ -31258,7 +31258,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>ඞРуна души</t>
+          <t>Руна души</t>
         </is>
       </c>
     </row>
@@ -31300,7 +31300,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>ඞРуна разума</t>
+          <t>Руна разума</t>
         </is>
       </c>
     </row>
@@ -31342,7 +31342,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>ඞРуна скорости</t>
+          <t>Руна скорости</t>
         </is>
       </c>
     </row>
@@ -31384,7 +31384,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>ඞСнаряд производит высокочастотные электромагнитные волны, нарушающие нормальные физиологические функции организмов.</t>
+          <t>Снаряд производит высокочастотные электромагнитные волны, нарушающие нормальные физиологические функции организмов.</t>
         </is>
       </c>
     </row>
@@ -31426,7 +31426,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>ඞОбычное оружие уличных протестующих.</t>
+          <t>Обычное оружие уличных протестующих.</t>
         </is>
       </c>
     </row>
@@ -33370,7 +33370,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>ඞЕсли на поле только один противник получите бонусный кубик.</t>
+          <t>Если на поле только один противник, атака получит бонусный кубик.</t>
         </is>
       </c>
     </row>
@@ -35934,8 +35934,8 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>ඞЭкипировка:
-Полученние урона уменьшит прочность на 1.</t>
+          <t>Экипировка:
+Получение урона уменьшит прочность на 1.</t>
         </is>
       </c>
     </row>
@@ -35983,8 +35983,8 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>ඞЭкипировка: ЛОВ-20
-Полученние урона уменьшит прочность на 1.</t>
+          <t>Экипировка: ЛОВ-20
+Получение урона уменьшит прочность на 1.</t>
         </is>
       </c>
     </row>
@@ -36032,7 +36032,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>ඞЭкипировка: Скорость+50
+          <t>Экипировка: Скорость+50
 Каждый ход в бою прочность этого предмета уменьшится на 1.</t>
         </is>
       </c>
@@ -36075,7 +36075,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>ඞПолностью восстанавливает MP.</t>
+          <t>Полностью восстанавливает MP.</t>
         </is>
       </c>
     </row>
@@ -36117,7 +36117,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>ඞКаждый полученный урон уменьшает прочность на 1. Будет уничтожен когда прочность достигнет 0.</t>
+          <t>Каждый полученный урон уменьшает прочность на 1. Будет уничтожен когда прочность достигнет 0.</t>
         </is>
       </c>
     </row>
@@ -36159,7 +36159,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>ඞКаждый полученный урон уменьшает прочность на 1.</t>
+          <t>Каждый полученный урон уменьшает прочность на 1.</t>
         </is>
       </c>
     </row>
@@ -36201,7 +36201,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>ඞВ начале хода восставливает 3 HP и теряет 1 прочность.</t>
+          <t>В начале хода восставливает 3 HP и теряет 1 прочность.</t>
         </is>
       </c>
     </row>
@@ -36243,7 +36243,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>ඞПачка боеприпасов</t>
+          <t>Пачка боеприпасов</t>
         </is>
       </c>
     </row>
@@ -36291,7 +36291,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>ඞSP+[1-3]
+          <t>SP+[1-3]
 Может использоваться только если SP &lt; 50</t>
         </is>
       </c>
@@ -36341,7 +36341,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>ඞSP+[1-4], снимает [Замешательство]
+          <t>SP+[1-4], снимает [Замешательство]
 Может использоваться только если SP &lt; 65</t>
         </is>
       </c>
@@ -36385,7 +36385,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>ඞЭкипировка: После каждой атаки теряет 1 единицу прочности. Не ломается.</t>
+          <t>Экипировка: После каждой атаки теряет 1 единицу прочности. Не ломается.</t>
         </is>
       </c>
     </row>
@@ -36433,7 +36433,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>ඞЭкипировка: При атаке потеряет 1 прочность вместо того чтобы расходовать боеприпасы.
+          <t>Экипировка: При атаке потеряет 1 прочность вместо того чтобы расходовать боеприпасы.
 Не ломается.</t>
         </is>
       </c>
@@ -36476,7 +36476,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>ඞДеревянный лук</t>
+          <t>Деревянный лук</t>
         </is>
       </c>
     </row>
@@ -36519,7 +36519,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>ඞМощное оружие дальнего боя. Для постоянного использования требуется большая физическая сила.</t>
+          <t>Мощное оружие дальнего боя. Для постоянного использования требуется большая физическая сила.</t>
         </is>
       </c>
     </row>
@@ -36561,7 +36561,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>ඞПалочка-дразнилка для кошек</t>
+          <t>Палочка-дразнилка для кошек</t>
         </is>
       </c>
     </row>
@@ -36603,7 +36603,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>ඞЭто мост дружбы, который соединяет вас с плюшевыми милашками!</t>
+          <t>Это мост дружбы соеденяющий вас с плюшевыми милашками!</t>
         </is>
       </c>
     </row>
@@ -36651,7 +36651,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>ඞЭкипировка: Дипломатия +5, SP +5
+          <t>Экипировка: Дипломатия +5, SP +5
 Если ваша цель - котенок, ваша проверка дипломатии увенчается критическим успехом!</t>
         </is>
       </c>
@@ -36695,7 +36695,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>ඞЭтот предмет нельзя снимать до окончания модуля. Вы хотите его оборудовать?</t>
+          <t>Этот предмет нельзя снимать до окончания модуля. Вы хотите его надеть?</t>
         </is>
       </c>
     </row>
@@ -36737,7 +36737,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>ඞКлавиша управления колесом обозрения</t>
+          <t>Ключ управления колесом обозрения</t>
         </is>
       </c>
     </row>
@@ -36779,7 +36779,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>ඞЭто ключ к переключателю управления колесом обозрения</t>
+          <t>Это ключ к переключателю управления колесом обозрения</t>
         </is>
       </c>
     </row>
@@ -36821,7 +36821,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>ඞЛипкая штука</t>
+          <t>Липкая штука</t>
         </is>
       </c>
     </row>
@@ -36863,7 +36863,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>ඞСлучайный продукт вашей обработки товара, хотя сама обработка не удалась, но вещь выглядит так, как будто она съедобна</t>
+          <t>Случайный продукт вашей обработки товара, хотя сама обработка не удалась, но вещь выглядит так, как будто она съедобна</t>
         </is>
       </c>
     </row>
